--- a/data-raw/input/cliar/db_variables.xlsx
+++ b/data-raw/input/cliar/db_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/iedochie_worldbank_org/Documents/Documents/GitProjects/cliaretl/data-raw/input/cliar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb438023\github\cliaretl\data-raw\input\cliar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_B64AFECF8F79A8D366075C52F37BD2722AC00DCA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{373EB1F4-CD44-418B-8720-30AB28C1ED9B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF62824-A763-481C-965F-4794E81D8C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5323,8 +5323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="I181" sqref="I181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
